--- a/Tài liệu/chitietphancong_data.xlsx
+++ b/Tài liệu/chitietphancong_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Máy tính\NghienCuuKhoaHoc\Tài liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20B4495-9C09-44FD-B013-80252BEC87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E478EA-2AD6-41E6-91C3-7D67E5672589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{1C37F3A0-0FA8-4144-9411-ADA28FDD627C}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F38902A-B128-4077-9439-9B7A57D44462}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N153" sqref="N153"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" x14ac:dyDescent="0.35"/>
